--- a/dataCleanup/format.xlsx
+++ b/dataCleanup/format.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Desktop\dataCleanup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB118076-ADE7-4568-8C79-D8B6D42F6F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB28242E-6F36-48D1-BDA7-2E28BAF2EB99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,9 +105,6 @@
     <t>Credit Term</t>
   </si>
   <si>
-    <t>Law &amp; Arbitration</t>
-  </si>
-  <si>
     <t>Inspection</t>
   </si>
   <si>
@@ -130,6 +127,9 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>Premium</t>
   </si>
 </sst>
 </file>
@@ -450,7 +450,7 @@
   <dimension ref="A2:A36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -581,57 +581,57 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
